--- a/RawData/26년 잔여 공사 공정관리_(입력).xlsx
+++ b/RawData/26년 잔여 공사 공정관리_(입력).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 기숙사 및 사택\12 주요 진행 현황\02 애플리케이션\08 공정 관리(Middle)\03 매핑\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB87A42C-B376-4A3C-BE41-9CCD8CE5E041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D4311-E353-46F6-B2A1-87C4EB674EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="0" windowWidth="18435" windowHeight="15480" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
+    <workbookView xWindow="14355" yWindow="0" windowWidth="14490" windowHeight="15525" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="184">
   <si>
     <t>No.</t>
   </si>
@@ -633,15 +633,37 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4500000001</t>
+    <t>단열</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4500000002</t>
+    <t>4570194438</t>
+  </si>
+  <si>
+    <t>4570194438</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>단열</t>
+    <t>4570194437</t>
+  </si>
+  <si>
+    <t>4570194437</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사택 102-403 UBR욕조 누수 수리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사택 누수보수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4570000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1563,9 +1585,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4301,7 +4323,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>98</v>
@@ -4315,7 +4337,9 @@
       <c r="F67" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="G67" s="33"/>
+      <c r="G67" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="H67" s="14">
         <v>46085</v>
       </c>
@@ -4340,7 +4364,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>100</v>
@@ -4354,7 +4378,9 @@
       <c r="F68" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="G68" s="33"/>
+      <c r="G68" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="H68" s="14">
         <v>46085</v>
       </c>
@@ -4375,19 +4401,43 @@
       <c r="O68" s="17"/>
     </row>
     <row r="69" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1">
-      <c r="A69" s="10"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="17"/>
+      <c r="A69" s="10">
+        <v>67</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G69" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="14">
+        <v>46085</v>
+      </c>
+      <c r="I69" s="34">
+        <v>46112</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="16">
+        <v>821300</v>
+      </c>
+      <c r="L69" s="16">
+        <v>821300</v>
+      </c>
+      <c r="M69" s="36"/>
       <c r="N69" s="26"/>
       <c r="O69" s="17"/>
     </row>
@@ -26075,8 +26125,8 @@
   </sheetPr>
   <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A169" sqref="A169"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -28357,7 +28407,7 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="37" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B163" s="39" t="s">
         <v>173</v>
@@ -28366,28 +28416,36 @@
         <v>46085</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B164" s="39" t="s">
         <v>174</v>
       </c>
       <c r="C164" s="27">
-        <v>46086</v>
+        <v>46080</v>
       </c>
       <c r="D164" s="30" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="37"/>
-      <c r="B165" s="31"/>
-      <c r="C165" s="43"/>
-      <c r="D165" s="44"/>
+      <c r="A165" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C165" s="27">
+        <v>46085</v>
+      </c>
+      <c r="D165" s="30" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="37"/>

--- a/RawData/26년 잔여 공사 공정관리_(입력).xlsx
+++ b/RawData/26년 잔여 공사 공정관리_(입력).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 기숙사 및 사택\12 주요 진행 현황\02 애플리케이션\08 공정 관리(Middle)\03 매핑\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310D4311-E353-46F6-B2A1-87C4EB674EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F12A1C-0625-4A44-8F42-53BE52164812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="0" windowWidth="14490" windowHeight="15525" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="18435" windowHeight="15480" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="3" r:id="rId1"/>
@@ -1188,6 +1188,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,27 +1234,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,7 +1587,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1609,70 +1609,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="48" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="50" t="s">
+      <c r="N1" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="50" t="s">
+      <c r="O1" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="10">
@@ -4344,7 +4344,7 @@
         <v>46085</v>
       </c>
       <c r="I67" s="34">
-        <v>46112</v>
+        <v>46086</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>113</v>
@@ -4382,10 +4382,10 @@
         <v>163</v>
       </c>
       <c r="H68" s="14">
-        <v>46085</v>
+        <v>46079</v>
       </c>
       <c r="I68" s="34">
-        <v>46112</v>
+        <v>46080</v>
       </c>
       <c r="J68" s="15" t="s">
         <v>113</v>
@@ -4426,7 +4426,7 @@
         <v>46085</v>
       </c>
       <c r="I69" s="34">
-        <v>46112</v>
+        <v>46086</v>
       </c>
       <c r="J69" s="15" t="s">
         <v>113</v>
@@ -26093,6 +26093,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:F2"/>
@@ -26100,13 +26107,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/RawData/26년 잔여 공사 공정관리_(입력).xlsx
+++ b/RawData/26년 잔여 공사 공정관리_(입력).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 기숙사 및 사택\12 주요 진행 현황\02 애플리케이션\08 공정 관리(Middle)\03 매핑\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F12A1C-0625-4A44-8F42-53BE52164812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8626696-2F56-4994-BADD-5E4229448D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="18435" windowHeight="15480" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
+    <workbookView xWindow="14355" yWindow="0" windowWidth="14490" windowHeight="15525" xr2:uid="{F9E0A9CF-57AC-466A-A87C-B51E8209070E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Data'!$A$1:$O$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Work!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Work!$A$1:$D$165</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="185">
   <si>
     <t>No.</t>
   </si>
@@ -414,9 +414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강화도어 흰지 교체</t>
-  </si>
-  <si>
     <t>도배</t>
   </si>
   <si>
@@ -429,31 +426,7 @@
     <t>청소</t>
   </si>
   <si>
-    <t>상하부장 문짝교체</t>
-  </si>
-  <si>
-    <t>창고 단열작업</t>
-  </si>
-  <si>
-    <t>거실 및 방 단열작업</t>
-  </si>
-  <si>
-    <t>베란다 전후면 누수보수</t>
-  </si>
-  <si>
-    <t>욕조 누수보수</t>
-  </si>
-  <si>
-    <t>베란다 전면 누수보수</t>
-  </si>
-  <si>
     <t>안방 단열작업</t>
-  </si>
-  <si>
-    <t>철거 및 교체</t>
-  </si>
-  <si>
-    <t>누수 난방 분배기 교체</t>
   </si>
   <si>
     <t>https://photos.app.goo.gl/X8nURWTLTCDFwv7W7</t>
@@ -471,19 +444,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>거실 및 방 걸레받이 교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">거실 창쪽 부분 단열작업 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">거실 창쪽 부분 도배작업 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -499,26 +460,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유량계 교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강화도어 흰지 교체 _ EM lock 설치</t>
-  </si>
-  <si>
-    <t>거실 _ 방 2 단열작업</t>
-  </si>
-  <si>
-    <t>작은방 1_2 단열작업</t>
-  </si>
-  <si>
-    <t>거실 _ 안방 _ 작은방 1 단열작업</t>
-  </si>
-  <si>
     <t>작은방 1 _2 단열작업</t>
-  </si>
-  <si>
-    <t>거실 _ 작은방 1 _2 단열작업</t>
   </si>
   <si>
     <t>7-307_7-402</t>
@@ -573,55 +515,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>씽크대 문교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단열작업_도배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>창고 단열작업</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB동 화장실 타일 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AB동 화장실 타일 보수 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A403-3 외 1개소 단열재 뜰뜸 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A204-2호외 5개소 문끌림 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A601-6호외 5개소 문끌림 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A801-3호외 5개소 문끌림 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1002-5 호외 5개소 문끌림 보수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1002-3 외 2개소 버티컬 교체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A802-3 단열재 뜰뜸 보수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -663,7 +561,109 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>수리</t>
+    <t>2-102_2-401_8-506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-106_5-206_5-505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거실 창쪽 단열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거실 창쪽 도배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단열_도배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베란다 전면 누수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은방 1_2 단열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베란다 전후면 누수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거실 및 방 단열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고 단열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거실 및 방 걸레받이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A1002-3 외 2개소 버티컬 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">철거 및 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">유량계 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A802-3 단열재 뜰뜸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1002-5 호외 5개소 문끌림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A801-3호외 5개소 문끌림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A601-6호외 5개소 문끌림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A204-2호외 5개소 문끌림 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A403-3 외 1개소 단열재 뜰뜸 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB동 화장실 타일  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AB동 화장실 타일 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">흰지 </t>
+  </si>
+  <si>
+    <t>흰지_EM lock</t>
+  </si>
+  <si>
+    <t>흰지</t>
+  </si>
+  <si>
+    <t>거실_방 2 단열</t>
+  </si>
+  <si>
+    <t>거실_안방_작은방 1 단열작업</t>
+  </si>
+  <si>
+    <t>거실_작은방 1 _2 단열작업</t>
+  </si>
+  <si>
+    <t>욕조</t>
+  </si>
+  <si>
+    <t>욕조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1188,27 +1188,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1234,6 +1213,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1585,9 +1585,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O1531"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1609,70 +1609,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="58"/>
+      <c r="J1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="27.75" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="47"/>
       <c r="H2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="10">
@@ -1732,10 +1732,10 @@
         <v>22</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H4" s="14">
         <v>46027</v>
@@ -2083,7 +2083,7 @@
         <v>85</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H12" s="14">
         <v>46050</v>
@@ -2165,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H14" s="14">
         <v>46055</v>
@@ -2288,7 +2288,7 @@
         <v>76</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H17" s="14">
         <v>46052</v>
@@ -2411,7 +2411,7 @@
         <v>79</v>
       </c>
       <c r="G20" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H20" s="14">
         <v>46065</v>
@@ -2534,7 +2534,7 @@
         <v>50</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H23" s="14">
         <v>46056</v>
@@ -2616,7 +2616,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H25" s="14">
         <v>46062</v>
@@ -2821,7 +2821,7 @@
         <v>57</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H30" s="14">
         <v>46063</v>
@@ -2985,7 +2985,7 @@
         <v>61</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H34" s="14">
         <v>46063</v>
@@ -3108,7 +3108,7 @@
         <v>64</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="H37" s="14">
         <v>46062</v>
@@ -3190,7 +3190,7 @@
         <v>66</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="H39" s="14">
         <v>46057</v>
@@ -3559,7 +3559,7 @@
         <v>75</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H48" s="14">
         <v>46059</v>
@@ -3600,7 +3600,7 @@
         <v>47</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H49" s="14">
         <v>46076</v>
@@ -3641,7 +3641,7 @@
         <v>46</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H50" s="14">
         <v>46064</v>
@@ -3682,7 +3682,7 @@
         <v>45</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H51" s="14">
         <v>46085</v>
@@ -3723,7 +3723,7 @@
         <v>44</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H52" s="14">
         <v>46094</v>
@@ -3805,7 +3805,7 @@
         <v>42</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H54" s="14">
         <v>46086</v>
@@ -3846,7 +3846,7 @@
         <v>41</v>
       </c>
       <c r="G55" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H55" s="14">
         <v>46085</v>
@@ -3887,7 +3887,7 @@
         <v>40</v>
       </c>
       <c r="G56" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H56" s="14">
         <v>46086</v>
@@ -3928,7 +3928,7 @@
         <v>39</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H57" s="14">
         <v>46065</v>
@@ -3969,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="G58" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H58" s="14">
         <v>46093</v>
@@ -4010,7 +4010,7 @@
         <v>32</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H59" s="14">
         <v>46094</v>
@@ -4051,7 +4051,7 @@
         <v>33</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H60" s="14">
         <v>46091</v>
@@ -4092,7 +4092,7 @@
         <v>34</v>
       </c>
       <c r="G61" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H61" s="14">
         <v>46094</v>
@@ -4133,7 +4133,7 @@
         <v>35</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H62" s="14">
         <v>46092</v>
@@ -4174,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H63" s="14">
         <v>46094</v>
@@ -4215,7 +4215,7 @@
         <v>37</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H64" s="14">
         <v>46092</v>
@@ -4256,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H65" s="14">
         <v>46090</v>
@@ -4297,7 +4297,7 @@
         <v>103</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H66" s="14">
         <v>46065</v>
@@ -4323,7 +4323,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>98</v>
@@ -4335,10 +4335,10 @@
         <v>22</v>
       </c>
       <c r="F67" s="31" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H67" s="14">
         <v>46085</v>
@@ -4364,7 +4364,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>100</v>
@@ -4376,10 +4376,10 @@
         <v>22</v>
       </c>
       <c r="F68" s="31" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H68" s="14">
         <v>46079</v>
@@ -4405,10 +4405,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>95</v>
@@ -4417,10 +4417,10 @@
         <v>22</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="H69" s="14">
         <v>46085</v>
@@ -26093,6 +26093,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="J1:J2"/>
@@ -26100,13 +26107,6 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -26125,8 +26125,8 @@
   </sheetPr>
   <dimension ref="A1:D371"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -26156,13 +26156,13 @@
         <v>4570163812</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C2" s="27">
         <v>46076</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="6" customFormat="1">
@@ -26170,13 +26170,13 @@
         <v>4570163812</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C3" s="27">
         <v>46077</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="6" customFormat="1">
@@ -26190,7 +26190,7 @@
         <v>46078</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="6" customFormat="1">
@@ -26204,7 +26204,7 @@
         <v>46079</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="6" customFormat="1">
@@ -26218,7 +26218,7 @@
         <v>46080</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1">
@@ -26232,7 +26232,7 @@
         <v>46084</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1">
@@ -26246,7 +26246,7 @@
         <v>46085</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="6" customFormat="1">
@@ -26260,7 +26260,7 @@
         <v>46086</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="6" customFormat="1">
@@ -26274,7 +26274,7 @@
         <v>46087</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1">
@@ -26288,7 +26288,7 @@
         <v>46036</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1">
@@ -26302,7 +26302,7 @@
         <v>46038</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1">
@@ -26316,7 +26316,7 @@
         <v>46045</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="6" customFormat="1">
@@ -26330,7 +26330,7 @@
         <v>46024</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="6" customFormat="1">
@@ -26344,7 +26344,7 @@
         <v>46025</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="6" customFormat="1">
@@ -26358,7 +26358,7 @@
         <v>46014</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="6" customFormat="1">
@@ -26372,7 +26372,7 @@
         <v>46038</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="6" customFormat="1">
@@ -26386,7 +26386,7 @@
         <v>46051</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="6" customFormat="1">
@@ -26400,7 +26400,7 @@
         <v>46061</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="6" customFormat="1">
@@ -26414,7 +26414,7 @@
         <v>46034</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="6" customFormat="1">
@@ -26428,7 +26428,7 @@
         <v>46046</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1">
@@ -26442,7 +26442,7 @@
         <v>46066</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1">
@@ -26456,7 +26456,7 @@
         <v>46055</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1">
@@ -26470,7 +26470,7 @@
         <v>46059</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1">
@@ -26484,7 +26484,7 @@
         <v>46065</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1">
@@ -26498,7 +26498,7 @@
         <v>46076</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1">
@@ -26512,7 +26512,7 @@
         <v>46066</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1">
@@ -26526,7 +26526,7 @@
         <v>46051</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1">
@@ -26540,7 +26540,7 @@
         <v>46045</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1">
@@ -26554,7 +26554,7 @@
         <v>46050</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1">
@@ -26568,7 +26568,7 @@
         <v>46062</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1">
@@ -26582,7 +26582,7 @@
         <v>46052</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1">
@@ -26596,7 +26596,7 @@
         <v>46060</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1">
@@ -26610,7 +26610,7 @@
         <v>46066</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1">
@@ -26624,7 +26624,7 @@
         <v>46076</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="6" customFormat="1">
@@ -26638,7 +26638,7 @@
         <v>46066</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>120</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1">
@@ -26652,7 +26652,7 @@
         <v>46057</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="6" customFormat="1">
@@ -26666,7 +26666,7 @@
         <v>46065</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="6" customFormat="1">
@@ -26680,7 +26680,7 @@
         <v>46076</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="6" customFormat="1">
@@ -26694,7 +26694,7 @@
         <v>46077</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="6" customFormat="1">
@@ -26708,7 +26708,7 @@
         <v>46080</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="6" customFormat="1">
@@ -26722,7 +26722,7 @@
         <v>46059</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="6" customFormat="1">
@@ -26736,7 +26736,7 @@
         <v>46050</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="6" customFormat="1">
@@ -26750,7 +26750,7 @@
         <v>46051</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="6" customFormat="1">
@@ -26764,7 +26764,7 @@
         <v>46062</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="6" customFormat="1">
@@ -26778,7 +26778,7 @@
         <v>46056</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="6" customFormat="1">
@@ -26792,7 +26792,7 @@
         <v>46051</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="6" customFormat="1">
@@ -26806,7 +26806,7 @@
         <v>46052</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="6" customFormat="1">
@@ -26820,7 +26820,7 @@
         <v>46065</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="6" customFormat="1">
@@ -26834,7 +26834,7 @@
         <v>46056</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="6" customFormat="1">
@@ -26848,7 +26848,7 @@
         <v>46052</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="6" customFormat="1">
@@ -26862,7 +26862,7 @@
         <v>46063</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="6" customFormat="1">
@@ -26876,7 +26876,7 @@
         <v>46074</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="6" customFormat="1">
@@ -26890,7 +26890,7 @@
         <v>46062</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1">
@@ -26904,7 +26904,7 @@
         <v>46062</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="6" customFormat="1">
@@ -26918,7 +26918,7 @@
         <v>46066</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="6" customFormat="1">
@@ -26932,7 +26932,7 @@
         <v>46075</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="6" customFormat="1">
@@ -26946,7 +26946,7 @@
         <v>46078</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="6" customFormat="1">
@@ -26960,7 +26960,7 @@
         <v>46052</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="6" customFormat="1">
@@ -26974,7 +26974,7 @@
         <v>46080</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="6" customFormat="1">
@@ -26988,7 +26988,7 @@
         <v>46064</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="6" customFormat="1">
@@ -27002,7 +27002,7 @@
         <v>46056</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="6" customFormat="1">
@@ -27016,7 +27016,7 @@
         <v>46063</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="6" customFormat="1">
@@ -27030,7 +27030,7 @@
         <v>46067</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="6" customFormat="1">
@@ -27044,7 +27044,7 @@
         <v>46074</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="6" customFormat="1">
@@ -27058,7 +27058,7 @@
         <v>46079</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="6" customFormat="1">
@@ -27072,7 +27072,7 @@
         <v>46059</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="6" customFormat="1">
@@ -27086,7 +27086,7 @@
         <v>46057</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="6" customFormat="1">
@@ -27100,7 +27100,7 @@
         <v>46066</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="6" customFormat="1">
@@ -27114,7 +27114,7 @@
         <v>46080</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="6" customFormat="1">
@@ -27128,7 +27128,7 @@
         <v>46084</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="6" customFormat="1">
@@ -27142,7 +27142,7 @@
         <v>46085</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="6" customFormat="1">
@@ -27156,7 +27156,7 @@
         <v>46063</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="6" customFormat="1">
@@ -27170,7 +27170,7 @@
         <v>46075</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="6" customFormat="1">
@@ -27184,7 +27184,7 @@
         <v>46076</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="6" customFormat="1">
@@ -27198,7 +27198,7 @@
         <v>46079</v>
       </c>
       <c r="D76" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="6" customFormat="1">
@@ -27212,7 +27212,7 @@
         <v>46051</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="6" customFormat="1">
@@ -27226,7 +27226,7 @@
         <v>46049</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="6" customFormat="1">
@@ -27240,7 +27240,7 @@
         <v>46062</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="6" customFormat="1">
@@ -27254,7 +27254,7 @@
         <v>46065</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="6" customFormat="1">
@@ -27268,7 +27268,7 @@
         <v>46075</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="6" customFormat="1">
@@ -27282,7 +27282,7 @@
         <v>46078</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="6" customFormat="1">
@@ -27296,7 +27296,7 @@
         <v>46080</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="6" customFormat="1">
@@ -27310,7 +27310,7 @@
         <v>46057</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="6" customFormat="1">
@@ -27324,7 +27324,7 @@
         <v>46064</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="6" customFormat="1">
@@ -27338,7 +27338,7 @@
         <v>46074</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:4" s="6" customFormat="1">
@@ -27352,7 +27352,7 @@
         <v>46077</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="6" customFormat="1">
@@ -27366,7 +27366,7 @@
         <v>46057</v>
       </c>
       <c r="D88" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="6" customFormat="1">
@@ -27380,7 +27380,7 @@
         <v>46055</v>
       </c>
       <c r="D89" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1">
@@ -27394,7 +27394,7 @@
         <v>46064</v>
       </c>
       <c r="D90" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:4" s="6" customFormat="1">
@@ -27408,7 +27408,7 @@
         <v>46067</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:4" s="6" customFormat="1">
@@ -27422,7 +27422,7 @@
         <v>46063</v>
       </c>
       <c r="D92" s="30" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:4" s="6" customFormat="1">
@@ -27436,7 +27436,7 @@
         <v>46065</v>
       </c>
       <c r="D93" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="94" spans="1:4" s="6" customFormat="1">
@@ -27450,7 +27450,7 @@
         <v>46078</v>
       </c>
       <c r="D94" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="95" spans="1:4" s="6" customFormat="1">
@@ -27464,7 +27464,7 @@
         <v>46079</v>
       </c>
       <c r="D95" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:4" s="6" customFormat="1">
@@ -27478,7 +27478,7 @@
         <v>46084</v>
       </c>
       <c r="D96" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="1:4" s="6" customFormat="1">
@@ -27492,7 +27492,7 @@
         <v>46062</v>
       </c>
       <c r="D97" s="30" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:4" s="6" customFormat="1">
@@ -27506,7 +27506,7 @@
         <v>46057</v>
       </c>
       <c r="D98" s="30" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:4" s="6" customFormat="1">
@@ -27520,7 +27520,7 @@
         <v>46066</v>
       </c>
       <c r="D99" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:4" s="6" customFormat="1">
@@ -27534,7 +27534,7 @@
         <v>46079</v>
       </c>
       <c r="D100" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:4" s="6" customFormat="1">
@@ -27548,7 +27548,7 @@
         <v>46080</v>
       </c>
       <c r="D101" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:4" s="6" customFormat="1">
@@ -27562,7 +27562,7 @@
         <v>46084</v>
       </c>
       <c r="D102" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="6" customFormat="1">
@@ -27576,7 +27576,7 @@
         <v>46057</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="6" customFormat="1">
@@ -27590,7 +27590,7 @@
         <v>46056</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="6" customFormat="1">
@@ -27604,7 +27604,7 @@
         <v>46065</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="6" customFormat="1">
@@ -27618,7 +27618,7 @@
         <v>46067</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="6" customFormat="1">
@@ -27632,7 +27632,7 @@
         <v>46056</v>
       </c>
       <c r="D107" s="30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="6" customFormat="1">
@@ -27646,7 +27646,7 @@
         <v>46059</v>
       </c>
       <c r="D108" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="6" customFormat="1">
@@ -27660,7 +27660,7 @@
         <v>46077</v>
       </c>
       <c r="D109" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="6" customFormat="1">
@@ -27674,7 +27674,7 @@
         <v>46078</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="6" customFormat="1">
@@ -27688,7 +27688,7 @@
         <v>46080</v>
       </c>
       <c r="D111" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="6" customFormat="1">
@@ -27702,7 +27702,7 @@
         <v>46076</v>
       </c>
       <c r="D112" s="30" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="6" customFormat="1">
@@ -27716,7 +27716,7 @@
         <v>46077</v>
       </c>
       <c r="D113" s="30" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="6" customFormat="1">
@@ -27730,7 +27730,7 @@
         <v>46078</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="6" customFormat="1">
@@ -27744,7 +27744,7 @@
         <v>46079</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="6" customFormat="1">
@@ -27758,7 +27758,7 @@
         <v>46080</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="6" customFormat="1">
@@ -27772,7 +27772,7 @@
         <v>46084</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="6" customFormat="1">
@@ -27786,7 +27786,7 @@
         <v>46085</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="6" customFormat="1">
@@ -27800,7 +27800,7 @@
         <v>46086</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="6" customFormat="1">
@@ -27814,7 +27814,7 @@
         <v>46028</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:4" s="6" customFormat="1">
@@ -27822,13 +27822,13 @@
         <v>4570163475</v>
       </c>
       <c r="B121" s="29" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C121" s="27">
         <v>46079</v>
       </c>
       <c r="D121" s="30" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="6" customFormat="1">
@@ -27836,13 +27836,13 @@
         <v>4570163475</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C122" s="27">
         <v>46080</v>
       </c>
       <c r="D122" s="30" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="6" customFormat="1">
@@ -27850,13 +27850,13 @@
         <v>4570185559</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C123" s="27">
         <v>46087</v>
       </c>
       <c r="D123" s="30" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="6" customFormat="1">
@@ -27864,13 +27864,13 @@
         <v>4570186504</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C124" s="27">
         <v>46080</v>
       </c>
       <c r="D124" s="30" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -27884,7 +27884,7 @@
         <v>46080</v>
       </c>
       <c r="D125" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -27898,7 +27898,7 @@
         <v>46085</v>
       </c>
       <c r="D126" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -27912,7 +27912,7 @@
         <v>46086</v>
       </c>
       <c r="D127" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -27926,7 +27926,7 @@
         <v>46101</v>
       </c>
       <c r="D128" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -27940,7 +27940,7 @@
         <v>46094</v>
       </c>
       <c r="D129" s="30" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -27954,7 +27954,7 @@
         <v>46086</v>
       </c>
       <c r="D130" s="30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -27968,7 +27968,7 @@
         <v>46086</v>
       </c>
       <c r="D131" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27982,7 +27982,7 @@
         <v>46090</v>
       </c>
       <c r="D132" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -27996,7 +27996,7 @@
         <v>46094</v>
       </c>
       <c r="D133" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -28010,7 +28010,7 @@
         <v>46104</v>
       </c>
       <c r="D134" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -28024,7 +28024,7 @@
         <v>46085</v>
       </c>
       <c r="D135" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -28038,7 +28038,7 @@
         <v>46086</v>
       </c>
       <c r="D136" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -28052,7 +28052,7 @@
         <v>46087</v>
       </c>
       <c r="D137" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -28066,7 +28066,7 @@
         <v>46101</v>
       </c>
       <c r="D138" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -28080,7 +28080,7 @@
         <v>46086</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -28094,7 +28094,7 @@
         <v>46087</v>
       </c>
       <c r="D140" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -28108,7 +28108,7 @@
         <v>46090</v>
       </c>
       <c r="D141" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -28122,7 +28122,7 @@
         <v>46104</v>
       </c>
       <c r="D142" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -28136,7 +28136,7 @@
         <v>46093</v>
       </c>
       <c r="D143" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -28150,7 +28150,7 @@
         <v>46096</v>
       </c>
       <c r="D144" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -28164,7 +28164,7 @@
         <v>46098</v>
       </c>
       <c r="D145" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -28178,7 +28178,7 @@
         <v>46105</v>
       </c>
       <c r="D146" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -28192,7 +28192,7 @@
         <v>46094</v>
       </c>
       <c r="D147" s="30" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -28206,7 +28206,7 @@
         <v>46091</v>
       </c>
       <c r="D148" s="30" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -28220,7 +28220,7 @@
         <v>46094</v>
       </c>
       <c r="D149" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -28234,7 +28234,7 @@
         <v>46098</v>
       </c>
       <c r="D150" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -28248,7 +28248,7 @@
         <v>46099</v>
       </c>
       <c r="D151" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -28262,7 +28262,7 @@
         <v>46106</v>
       </c>
       <c r="D152" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -28276,7 +28276,7 @@
         <v>46092</v>
       </c>
       <c r="D153" s="30" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -28290,7 +28290,7 @@
         <v>46104</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -28304,7 +28304,7 @@
         <v>46092</v>
       </c>
       <c r="D155" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -28318,7 +28318,7 @@
         <v>46094</v>
       </c>
       <c r="D156" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -28332,7 +28332,7 @@
         <v>46095</v>
       </c>
       <c r="D157" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -28346,7 +28346,7 @@
         <v>46105</v>
       </c>
       <c r="D158" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -28360,7 +28360,7 @@
         <v>46090</v>
       </c>
       <c r="D159" s="30" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -28374,7 +28374,7 @@
         <v>46099</v>
       </c>
       <c r="D160" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -28388,7 +28388,7 @@
         <v>46100</v>
       </c>
       <c r="D161" s="30" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -28402,43 +28402,43 @@
         <v>46106</v>
       </c>
       <c r="D162" s="30" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="37" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B163" s="39" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C163" s="27">
         <v>46085</v>
       </c>
       <c r="D163" s="30" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="37" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="B164" s="39" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C164" s="27">
         <v>46080</v>
       </c>
       <c r="D164" s="30" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="37" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B165" s="39" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="C165" s="27">
         <v>46085</v>
@@ -29684,6 +29684,7 @@
       <c r="D371" s="44"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D165" xr:uid="{7DD86A97-A351-45D9-AA16-0CE720819858}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29776,7 +29777,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
